--- a/output/students_elementary.xlsx
+++ b/output/students_elementary.xlsx
@@ -1450,7 +1450,7 @@
       </c>
       <c r="E7" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F7" s="20" t="n"/>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I7" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J7" s="17" t="n"/>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="G8" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H8" s="20" t="n"/>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D15" s="20" t="n"/>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D16" s="20" t="n"/>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D21" s="20" t="n"/>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F31" s="20" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="G31" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H31" s="20" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="I31" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J31" s="17" t="n"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="K32" s="34" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D39" s="20" t="n"/>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="G39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H39" s="20" t="n"/>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="K39" s="34" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D40" s="20" t="n"/>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="G40" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H40" s="20" t="n"/>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="K40" s="34" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D47" s="20" t="n"/>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="G47" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H47" s="20" t="n"/>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F15" s="28" t="n"/>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="K17" s="35" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F21" s="20" t="n"/>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="I21" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J21" s="17" t="n"/>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F23" s="17" t="n"/>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="I23" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J23" s="17" t="n"/>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D29" s="20" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F29" s="20" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="G29" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H29" s="20" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="I29" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J29" s="17" t="n"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="K32" s="34" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D39" s="20" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F39" s="17" t="n"/>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="I39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J39" s="17" t="n"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="I41" s="24" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D47" s="20" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F47" s="17" t="n"/>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="I47" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J47" s="17" t="n"/>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="I8" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J8" s="17" t="n"/>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F15" s="28" t="n"/>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="I16" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J16" s="17" t="n"/>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="G22" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H22" s="17" t="n"/>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="G31" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H31" s="20" t="n"/>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F32" s="20" t="n"/>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D39" s="20" t="n"/>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="G40" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H40" s="20" t="n"/>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D48" s="20" t="inlineStr">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F48" s="20" t="n"/>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D15" s="17" t="n"/>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="I15" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J15" s="17" t="n"/>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D21" s="17" t="n"/>
@@ -5880,7 +5880,7 @@
       </c>
       <c r="G21" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H21" s="20" t="n"/>
@@ -7030,7 +7030,7 @@
       </c>
       <c r="I15" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J15" s="17" t="n"/>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F21" s="20" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="I21" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J21" s="17" t="n"/>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F22" s="20" t="n"/>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="I22" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J22" s="17" t="n"/>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F29" s="20" t="n"/>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="C7" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D7" s="17" t="n"/>
@@ -8200,7 +8200,7 @@
       </c>
       <c r="G7" s="18" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H7" s="20" t="inlineStr">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="I7" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J7" s="17" t="n"/>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="G8" s="18" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D15" s="17" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="E15" s="18" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F15" s="28" t="n"/>
@@ -8410,7 +8410,7 @@
       </c>
       <c r="I15" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J15" s="17" t="n"/>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="E16" s="18" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F16" s="28" t="n"/>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D21" s="20" t="n"/>
@@ -8566,7 +8566,7 @@
       </c>
       <c r="G21" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H21" s="20" t="n"/>
@@ -8587,7 +8587,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D22" s="20" t="n"/>
@@ -8599,7 +8599,7 @@
       </c>
       <c r="G22" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H22" s="20" t="n"/>
@@ -8756,7 +8756,7 @@
       </c>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F29" s="20" t="n"/>
@@ -8768,7 +8768,7 @@
       </c>
       <c r="I29" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J29" s="47" t="n"/>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="G30" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H30" s="20" t="n"/>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D39" s="17" t="n"/>
@@ -8992,7 +8992,7 @@
       </c>
       <c r="G39" s="18" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H39" s="20" t="inlineStr">
@@ -9002,7 +9002,7 @@
       </c>
       <c r="I39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J39" s="17" t="n"/>
@@ -9025,7 +9025,7 @@
       </c>
       <c r="G40" s="18" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H40" s="17" t="n"/>
@@ -9180,7 +9180,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D47" s="17" t="n"/>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="G47" s="18" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H47" s="20" t="n"/>
@@ -9217,7 +9217,7 @@
       </c>
       <c r="G48" s="18" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H48" s="17" t="n"/>
@@ -9614,7 +9614,7 @@
       </c>
       <c r="I7" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J7" s="17" t="n"/>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="E8" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F8" s="17" t="n"/>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="I8" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J8" s="17" t="n"/>
@@ -9802,7 +9802,7 @@
       </c>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F15" s="28" t="n"/>
@@ -9827,7 +9827,7 @@
       </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F16" s="28" t="n"/>
@@ -9952,7 +9952,7 @@
       </c>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F21" s="20" t="n"/>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="K22" s="34" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -10136,7 +10136,7 @@
       </c>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F29" s="20" t="inlineStr">
@@ -10146,7 +10146,7 @@
       </c>
       <c r="G29" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H29" s="20" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="I29" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J29" s="17" t="n"/>
@@ -10217,7 +10217,7 @@
       </c>
       <c r="K32" s="34" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -10370,7 +10370,7 @@
       </c>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F39" s="17" t="n"/>
@@ -10382,7 +10382,7 @@
       </c>
       <c r="I39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J39" s="17" t="n"/>
@@ -10403,7 +10403,7 @@
       </c>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F40" s="17" t="n"/>
@@ -10562,7 +10562,7 @@
       </c>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F47" s="20" t="n"/>
@@ -10574,7 +10574,7 @@
       </c>
       <c r="I47" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J47" s="20" t="n"/>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="I49" s="24" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
@@ -10960,7 +10960,7 @@
       </c>
       <c r="K5" s="34" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
       </c>
       <c r="K6" s="34" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -11002,7 +11002,7 @@
       </c>
       <c r="C7" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D7" s="17" t="n"/>
@@ -11014,7 +11014,7 @@
       </c>
       <c r="G7" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H7" s="20" t="n"/>
@@ -11039,7 +11039,7 @@
       </c>
       <c r="G8" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H8" s="20" t="n"/>
@@ -11194,7 +11194,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D15" s="17" t="n"/>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="I15" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J15" s="20" t="n"/>
@@ -11227,7 +11227,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D16" s="17" t="n"/>
@@ -11352,7 +11352,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D21" s="17" t="n"/>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="G21" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H21" s="20" t="n"/>
@@ -11376,7 +11376,7 @@
       </c>
       <c r="K21" s="34" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D22" s="17" t="n"/>
@@ -11405,7 +11405,7 @@
       </c>
       <c r="G22" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H22" s="20" t="n"/>
@@ -11417,7 +11417,7 @@
       </c>
       <c r="K22" s="34" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -11587,7 +11587,7 @@
       </c>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F30" s="20" t="n"/>
@@ -11599,7 +11599,7 @@
       </c>
       <c r="I30" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J30" s="28" t="n"/>
@@ -11786,7 +11786,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D39" s="20" t="n"/>
@@ -11811,7 +11811,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D40" s="20" t="n"/>
@@ -12384,7 +12384,7 @@
       </c>
       <c r="C7" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D7" s="20" t="inlineStr">
@@ -12394,7 +12394,7 @@
       </c>
       <c r="E7" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F7" s="17" t="n"/>
@@ -12406,7 +12406,7 @@
       </c>
       <c r="I7" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J7" s="20" t="n"/>
@@ -12584,7 +12584,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D15" s="20" t="inlineStr">
@@ -12606,7 +12606,7 @@
       </c>
       <c r="I15" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J15" s="20" t="n"/>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D16" s="20" t="n"/>
@@ -13796,7 +13796,7 @@
       </c>
       <c r="E7" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F7" s="17" t="n"/>
@@ -13808,7 +13808,7 @@
       </c>
       <c r="I7" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J7" s="17" t="n"/>
@@ -13833,7 +13833,7 @@
       </c>
       <c r="I8" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J8" s="17" t="n"/>
@@ -13988,7 +13988,7 @@
       </c>
       <c r="E15" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F15" s="28" t="n"/>
@@ -14000,7 +14000,7 @@
       </c>
       <c r="I15" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J15" s="17" t="n"/>
@@ -14025,7 +14025,7 @@
       </c>
       <c r="I16" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J16" s="17" t="n"/>
@@ -14146,7 +14146,7 @@
       </c>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="F21" s="20" t="n"/>
@@ -14320,7 +14320,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D29" s="17" t="n"/>
@@ -14534,7 +14534,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D39" s="17" t="n"/>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="G39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H39" s="20" t="inlineStr">
@@ -14556,7 +14556,7 @@
       </c>
       <c r="I39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J39" s="17" t="n"/>
@@ -14726,7 +14726,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D47" s="17" t="n"/>
@@ -14740,7 +14740,7 @@
       </c>
       <c r="I47" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J47" s="17" t="n"/>
@@ -14765,7 +14765,7 @@
       </c>
       <c r="I48" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J48" s="17" t="n"/>
@@ -15127,7 +15127,7 @@
       </c>
       <c r="K5" s="34" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -15161,7 +15161,7 @@
       </c>
       <c r="C7" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D7" s="17" t="n"/>
@@ -15173,7 +15173,7 @@
       </c>
       <c r="G7" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H7" s="17" t="n"/>
@@ -15345,7 +15345,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D15" s="17" t="n"/>
@@ -15491,7 +15491,7 @@
       </c>
       <c r="G21" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H21" s="17" t="n"/>
@@ -15503,7 +15503,7 @@
       </c>
       <c r="K21" s="34" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -15537,7 +15537,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D23" s="17" t="n"/>
@@ -15679,7 +15679,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D29" s="20" t="n"/>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D39" s="17" t="n"/>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="G39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H39" s="17" t="n"/>
@@ -16047,7 +16047,7 @@
       </c>
       <c r="K45" s="34" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
     </row>
@@ -16081,7 +16081,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D47" s="17" t="n"/>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="G47" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H47" s="17" t="n"/>
@@ -16677,7 +16677,7 @@
       </c>
       <c r="I15" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J15" s="20" t="n"/>
@@ -16813,7 +16813,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="D21" s="20" t="n"/>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="G21" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H21" s="20" t="inlineStr">
@@ -16835,7 +16835,7 @@
       </c>
       <c r="I21" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J21" s="54" t="n"/>
@@ -17009,7 +17009,7 @@
       </c>
       <c r="G29" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H29" s="20" t="inlineStr">
@@ -17019,7 +17019,7 @@
       </c>
       <c r="I29" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J29" s="17" t="n"/>
@@ -17227,7 +17227,7 @@
       </c>
       <c r="G39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="H39" s="20" t="inlineStr">
@@ -17237,7 +17237,7 @@
       </c>
       <c r="I39" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J39" s="20" t="n"/>
@@ -17413,7 +17413,7 @@
       </c>
       <c r="I47" s="21" t="inlineStr">
         <is>
-          <t>特別</t>
+          <t>講習</t>
         </is>
       </c>
       <c r="J47" s="20" t="n"/>
